--- a/Di Giulio et al_Supplementary Material_SM1.xlsx
+++ b/Di Giulio et al_Supplementary Material_SM1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreadigiulio/Desktop/Articolo clima per sottomissione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreadigiulio/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04C4CC-00AA-B940-A221-D1C107E43972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C92677-EDA0-9A46-9D8D-DC964409DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>new_fragmentation_index.txt</t>
   </si>
   <si>
-    <t>lag</t>
+    <t>Time (Ma)</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -114,6 +117,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rettangolo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D840FB6-A229-D20F-E174-F4B167A8C8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068300" y="342900"/>
+          <a:ext cx="3594100" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3492500" cy="2603499"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBB429D-BF53-9FFD-402B-BA36018A7B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13093700" y="330201"/>
+          <a:ext cx="3492500" cy="2603499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If you use this dataset please cite:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Geodynamic pacemaker of Phanerozoic climate: A Multivariate Analysis of Plate Boundary Processes and Global Temperature Variations (2025)</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Andrea Di Giulio, Pietro Sternai, Roberto Sacchi, Luca Castrogiovanni. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Global</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Planetary Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>References for original data and method used to normalize them reported in the paper</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,13 +650,16 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
@@ -448,7 +703,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2">
@@ -492,7 +747,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3">
@@ -530,7 +785,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4">
@@ -568,7 +823,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>20</v>
       </c>
       <c r="B5">
@@ -606,7 +861,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>25</v>
       </c>
       <c r="B6">
@@ -644,7 +899,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>30</v>
       </c>
       <c r="B7">
@@ -679,7 +934,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>35</v>
       </c>
       <c r="B8">
@@ -717,7 +972,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>40</v>
       </c>
       <c r="B9">
@@ -755,7 +1010,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>45</v>
       </c>
       <c r="B10">
@@ -790,7 +1045,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>50</v>
       </c>
       <c r="B11">
@@ -831,7 +1086,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12">
@@ -866,7 +1121,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>60</v>
       </c>
       <c r="B13">
@@ -901,7 +1156,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>65</v>
       </c>
       <c r="B14">
@@ -942,7 +1197,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>70</v>
       </c>
       <c r="B15">
@@ -980,7 +1235,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16">
@@ -1015,7 +1270,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17">
@@ -1053,7 +1308,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>85</v>
       </c>
       <c r="B18">
@@ -1088,7 +1343,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>90</v>
       </c>
       <c r="B19">
@@ -1126,7 +1381,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>95</v>
       </c>
       <c r="B20">
@@ -1161,7 +1416,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>100</v>
       </c>
       <c r="B21">
@@ -1199,7 +1454,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>105</v>
       </c>
       <c r="B22">
@@ -1234,7 +1489,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>110</v>
       </c>
       <c r="B23">
@@ -1275,7 +1530,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>115</v>
       </c>
       <c r="B24">
@@ -1310,7 +1565,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>120</v>
       </c>
       <c r="B25">
@@ -1351,7 +1606,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>125</v>
       </c>
       <c r="B26">
@@ -1389,7 +1644,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>130</v>
       </c>
       <c r="B27">
@@ -1430,7 +1685,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>135</v>
       </c>
       <c r="B28">
@@ -1468,7 +1723,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>140</v>
       </c>
       <c r="B29">
@@ -1500,7 +1755,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>145</v>
       </c>
       <c r="B30">
@@ -1541,7 +1796,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>150</v>
       </c>
       <c r="B31">
@@ -1576,7 +1831,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>155</v>
       </c>
       <c r="B32">
@@ -1617,7 +1872,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>160</v>
       </c>
       <c r="B33">
@@ -1652,7 +1907,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>165</v>
       </c>
       <c r="B34">
@@ -1693,7 +1948,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>170</v>
       </c>
       <c r="B35">
@@ -1728,7 +1983,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>175</v>
       </c>
       <c r="B36">
@@ -1760,7 +2015,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>180</v>
       </c>
       <c r="B37">
@@ -1798,7 +2053,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>185</v>
       </c>
       <c r="B38">
@@ -1839,7 +2094,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>190</v>
       </c>
       <c r="B39">
@@ -1874,7 +2129,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>195</v>
       </c>
       <c r="B40">
@@ -1912,7 +2167,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>200</v>
       </c>
       <c r="B41">
@@ -1947,7 +2202,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>205</v>
       </c>
       <c r="B42">
@@ -1982,7 +2237,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>210</v>
       </c>
       <c r="B43">
@@ -2017,7 +2272,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>215</v>
       </c>
       <c r="B44">
@@ -2052,7 +2307,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>220</v>
       </c>
       <c r="B45">
@@ -2090,7 +2345,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>225</v>
       </c>
       <c r="B46">
@@ -2116,7 +2371,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>230</v>
       </c>
       <c r="B47">
@@ -2154,7 +2409,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>235</v>
       </c>
       <c r="B48">
@@ -2180,7 +2435,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>240</v>
       </c>
       <c r="B49">
@@ -2209,7 +2464,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>245</v>
       </c>
       <c r="B50">
@@ -2232,7 +2487,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>250</v>
       </c>
       <c r="B51">
@@ -2261,7 +2516,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>255</v>
       </c>
       <c r="B52">
@@ -2287,7 +2542,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>260</v>
       </c>
       <c r="B53">
@@ -2313,7 +2568,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>265</v>
       </c>
       <c r="B54">
@@ -2339,7 +2594,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>270</v>
       </c>
       <c r="B55">
@@ -2365,7 +2620,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>275</v>
       </c>
       <c r="B56">
@@ -2388,7 +2643,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>280</v>
       </c>
       <c r="B57">
@@ -2411,7 +2666,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>285</v>
       </c>
       <c r="B58">
@@ -2440,7 +2695,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>290</v>
       </c>
       <c r="B59">
@@ -2469,7 +2724,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>295</v>
       </c>
       <c r="B60">
@@ -2492,7 +2747,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>300</v>
       </c>
       <c r="B61">
@@ -2515,7 +2770,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>305</v>
       </c>
       <c r="B62">
@@ -2544,7 +2799,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>310</v>
       </c>
       <c r="B63">
@@ -2573,7 +2828,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>315</v>
       </c>
       <c r="B64">
@@ -2593,7 +2848,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>320</v>
       </c>
       <c r="B65">
@@ -2622,7 +2877,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>325</v>
       </c>
       <c r="B66">
@@ -2645,7 +2900,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>330</v>
       </c>
       <c r="B67">
@@ -2671,7 +2926,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>335</v>
       </c>
       <c r="B68">
@@ -2694,7 +2949,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>340</v>
       </c>
       <c r="B69">
@@ -2723,7 +2978,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>345</v>
       </c>
       <c r="B70">
@@ -2743,7 +2998,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>350</v>
       </c>
       <c r="B71">
@@ -2769,7 +3024,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>355</v>
       </c>
       <c r="B72">
@@ -2798,7 +3053,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>360</v>
       </c>
       <c r="B73">
@@ -2821,7 +3076,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>365</v>
       </c>
       <c r="B74">
@@ -2847,7 +3102,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>370</v>
       </c>
       <c r="B75">
@@ -2876,7 +3131,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>375</v>
       </c>
       <c r="B76">
@@ -2902,7 +3157,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>380</v>
       </c>
       <c r="B77">
@@ -2925,7 +3180,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>385</v>
       </c>
       <c r="B78">
@@ -2954,7 +3209,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>390</v>
       </c>
       <c r="B79">
@@ -2980,7 +3235,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>395</v>
       </c>
       <c r="B80">
@@ -3006,7 +3261,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>400</v>
       </c>
       <c r="B81">
@@ -3032,7 +3287,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>405</v>
       </c>
       <c r="B82">
@@ -3061,7 +3316,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>410</v>
       </c>
       <c r="B83">
@@ -3087,7 +3342,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>415</v>
       </c>
       <c r="B84">
@@ -3110,7 +3365,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>420</v>
       </c>
       <c r="B85">
@@ -3133,7 +3388,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>425</v>
       </c>
       <c r="B86">
@@ -3162,7 +3417,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>430</v>
       </c>
       <c r="B87">
@@ -3185,7 +3440,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>435</v>
       </c>
       <c r="B88">
@@ -3211,7 +3466,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>440</v>
       </c>
       <c r="B89">
@@ -3237,7 +3492,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>445</v>
       </c>
       <c r="B90">
@@ -3266,7 +3521,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>450</v>
       </c>
       <c r="B91">
@@ -3289,7 +3544,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>455</v>
       </c>
       <c r="B92">
@@ -3318,7 +3573,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>460</v>
       </c>
       <c r="B93">
@@ -3344,7 +3599,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>465</v>
       </c>
       <c r="B94">
@@ -3373,7 +3628,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>470</v>
       </c>
       <c r="B95">
@@ -3402,7 +3657,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>475</v>
       </c>
       <c r="B96">
@@ -3422,7 +3677,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>480</v>
       </c>
       <c r="B97">
@@ -3451,7 +3706,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>485</v>
       </c>
       <c r="B98">
@@ -3474,7 +3729,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>490</v>
       </c>
       <c r="B99">
@@ -3503,7 +3758,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>495</v>
       </c>
       <c r="B100">
@@ -3523,7 +3778,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>500</v>
       </c>
       <c r="B101">
@@ -3549,7 +3804,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>505</v>
       </c>
       <c r="B102">
@@ -3575,7 +3830,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>510</v>
       </c>
       <c r="B103">
@@ -3601,7 +3856,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>515</v>
       </c>
       <c r="B104">
@@ -3627,7 +3882,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>520</v>
       </c>
       <c r="B105">
@@ -3653,7 +3908,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>525</v>
       </c>
       <c r="B106">
@@ -3667,7 +3922,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>530</v>
       </c>
       <c r="B107">
@@ -3687,7 +3942,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>535</v>
       </c>
       <c r="B108">
@@ -3704,7 +3959,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>540</v>
       </c>
       <c r="B109">
@@ -3721,7 +3976,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>545</v>
       </c>
       <c r="C110">
@@ -3734,5 +3989,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>